--- a/biology/Zoologie/Chiromantis/Chiromantis.xlsx
+++ b/biology/Zoologie/Chiromantis/Chiromantis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiromantis est un genre d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiromantis est un genre d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 18 espèces de ce genre se rencontrent en Afrique subsaharienne, en Asie du Sud, en Asie du Sud-Est et dans le sud de la République populaire de Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 18 espèces de ce genre se rencontrent en Afrique subsaharienne, en Asie du Sud, en Asie du Sud-Est et dans le sud de la République populaire de Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (8 octobre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (8 octobre 2015) :
 Chiromantis baladika Riyanto &amp; Kurniati, 2014
 Chiromantis cherrapunjiae (Roonwal &amp; Kripalani, 1966)
 Chiromantis doriae (Boulenger, 1893)
@@ -590,9 +606,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chirixalus[3] a été placé en synonymie avec Chiromantis par Frost et al. en 2006[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chirixalus a été placé en synonymie avec Chiromantis par Frost et al. en 2006.
 </t>
         </is>
       </c>
@@ -621,7 +639,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
